--- a/pred_ohlcv/54_21/2020-01-16 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1477149.913023602</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1481592.362323602</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1484191.114823602</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3152532.214874828</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3144331.637574828</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3166352.886774828</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3166352.886774828</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3166352.886774828</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3399622.898074828</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3422784.879374828</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3480170.306474828</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3430531.501274828</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3450221.713674828</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3472194.835174828</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3552194.835174828</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3552194.835174828</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3524065.301474828</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3524065.301474828</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3524065.301474828</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3605065.301474828</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3604935.734174828</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3605116.933074828</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3604987.365774828</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3604987.365774828</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3604987.365774828</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3619229.992774828</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3622780.168974828</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3622650.601674828</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3622650.601674828</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3577733.057974828</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3773738.469274828</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3773480.004555262</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3773480.004555262</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3773480.004555262</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3759098.077355262</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3747351.813555263</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3736520.410555263</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1477149.913023602</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1481592.362323602</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3152532.214874828</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3144331.637574828</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3166352.886774828</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3166352.886774828</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3166352.886774828</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3399622.898074828</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3422784.879374828</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3480170.306474828</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3430531.501274828</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3451566.077774828</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3450221.713674828</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3472194.835174828</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3552194.835174828</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3552194.835174828</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3524065.301474828</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3524065.301474828</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3524065.301474828</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3605065.301474828</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3604935.734174828</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-3605116.933074828</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3604987.365774828</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3604987.365774828</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3604987.365774828</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3619229.992774828</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3622780.168974828</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3622650.601674828</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3622650.601674828</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3622650.601674828</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3577733.057974828</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3773738.469274828</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3773480.004555262</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3759098.077355262</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3747351.813555263</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3744684.641655263</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3736647.669455262</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3745021.284255262</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3745021.284255262</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3745021.284255262</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3745021.284255262</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3750946.257355263</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3742007.980355263</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3741862.980355263</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3747075.026455263</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3747375.026455263</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3747375.026455263</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3747121.154855262</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3757121.154855262</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3762333.200955262</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3762205.812355262</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3762205.812355262</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3761817.359555262</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4247673.125055262</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4245539.360455262</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
